--- a/assets/dataFiles/One Day Tour Packages.xlsx
+++ b/assets/dataFiles/One Day Tour Packages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E39A9EE-1729-462F-9AB9-B44805077484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F11DB2-12D5-4EA1-A138-ACF0A282E6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E25AFADE-E949-4844-8DF2-76E0E6029CC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{E25AFADE-E949-4844-8DF2-76E0E6029CC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>AMOUNT in INR</t>
   </si>
   <si>
-    <t>TOLL , PARKING EXRA</t>
-  </si>
-  <si>
     <t>SEAT CAPACITY</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>20+1</t>
   </si>
   <si>
-    <t>TOLL, PARKING EXRA</t>
-  </si>
-  <si>
     <t>OOTY - BLACK THUNDER - OOTY</t>
   </si>
   <si>
@@ -131,23 +125,29 @@
     <t>COIMBATORE - OOTY - COIMBATORE</t>
   </si>
   <si>
+    <t>One Day Tour Packages</t>
+  </si>
+  <si>
+    <t>TOLL, PARKING EXTRA</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;h5&gt;Attraction&lt;/h5&gt;&lt;p&gt;Mysore Palace, Brindavan Gardens, Chamundi Hills, Mysore Zoo, Lalita Mahal Palace, Rail Museum, Sri Ranganatha Swamy Temple, Datta Peetham, Karanji Lake Nature Park, Tipu Sultan's Palace&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;h5&gt;Attraction&lt;/h5&gt;&lt;p&gt; Black thunder, Kattary Park, Law falls.&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;h5&gt;Attraction&lt;/h5&gt;&lt;p&gt; Botanical Garden, Boathouse, Thread Garden, Century Rose Garden, Dodabetta Peak, Tea Factory, Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view)&lt;/p&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>TOLL , PARKING EXTRA</t>
+  </si>
+  <si>
     <t>TOLL,
-PARKING EXRA</t>
-  </si>
-  <si>
-    <t>Attraction: Black thunder, Kattary Park, Law falls.</t>
-  </si>
-  <si>
-    <t>Attraction: Mysore Palace, Brindavan Gardens, Chamundi Hills, Mysore Zoo, Lalita Mahal Palace, Rail Museum, Sri Ranganatha Swamy Temple, Datta Peetham, Karanji Lake Nature Park, Tipu Sultan's Palace</t>
-  </si>
-  <si>
-    <t>Attraction: Botanical Garden, Boathouse, Thread Garden, Century Rose Garden, Dodabetta Peak, Tea Factory, Pine Forest, 6th Mile (shooting spot), Kamarajar Sagar Dam, 9th Mile (shooting spot), Trible Village, Golf Course (outer view), Pykara falls, Pykara lake &amp; boating, Pykara Dam (outer view)</t>
-  </si>
-  <si>
-    <t>Attraction: Dodabetta Peak, Tea Factory&amp; Musium, Wax Musium, Chocolate Factory, Botanical Garden, Boathouse, Thread Garden,Ketty valleyview( view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park,Tea Garden, Nilgiri Mountain Toy Train.</t>
-  </si>
-  <si>
-    <t>One Day Tour Packages</t>
+PARKING EXTRA</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;h5&gt;Attraction&lt;/h5&gt;&lt;p&gt; Dodabetta Peak, Tea Factory&amp; Musium, Wax Musium, Chocolate Factory, Botanical Garden, Boathouse, Thread Garden,Ketty valleyview( view), MRC (outer view), Dolphin Nose, Lamb's Rock, Sim's Park,Tea Garden, Nilgiri Mountain Toy Train.&lt;/p&gt;&lt;/div&gt;</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD9A343-79A4-4DDB-9D83-B734AA7C4A0D}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -729,7 +729,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -739,17 +739,17 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -763,7 +763,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,7 +788,7 @@
     </row>
     <row r="2" spans="1:6" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -807,13 +807,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -821,19 +821,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>4500</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -841,19 +841,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>5000</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -861,19 +861,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>5500</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -881,19 +881,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3">
         <v>5600</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -901,19 +901,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
         <v>5700</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -921,19 +921,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3">
         <v>5800</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -941,19 +941,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
         <v>6800</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -961,19 +961,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3">
         <v>7000</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -981,19 +981,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3">
         <v>7200</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1001,19 +1001,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3">
         <v>7500</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1021,19 +1021,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3">
         <v>11500</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1041,19 +1041,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="9">
         <v>13000</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1071,7 +1071,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,7 +1086,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1115,13 +1115,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1129,19 +1129,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>1600</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1149,19 +1149,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>1650</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1169,19 +1169,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>1700</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1189,19 +1189,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3">
         <v>1700</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1209,19 +1209,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
         <v>1750</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1229,19 +1229,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3">
         <v>1800</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1249,19 +1249,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
         <v>2300</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1269,19 +1269,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3">
         <v>2400</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1289,19 +1289,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3">
         <v>2500</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1309,19 +1309,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3">
         <v>2800</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1329,19 +1329,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3">
         <v>3200</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1349,19 +1349,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="9">
         <v>3500</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,7 +1393,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="2" spans="1:6" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1422,13 +1422,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1436,19 +1436,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>4500</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1456,19 +1456,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>5000</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1476,19 +1476,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>5500</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1496,19 +1496,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3">
         <v>5600</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1516,19 +1516,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
         <v>5700</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1536,19 +1536,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3">
         <v>5800</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1556,19 +1556,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
         <v>6800</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1576,19 +1576,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3">
         <v>7000</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,19 +1596,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3">
         <v>7200</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1616,19 +1616,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3">
         <v>7500</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1636,19 +1636,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3">
         <v>11500</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1656,19 +1656,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="9">
         <v>13000</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1734,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83EE9B42-6606-4132-B9E7-6FD808540585}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,7 +1750,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="2" spans="1:6" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1779,13 +1779,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1793,19 +1793,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>3500</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1813,19 +1813,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>3600</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1833,19 +1833,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>3700</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1853,19 +1853,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3">
         <v>3800</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1873,19 +1873,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
         <v>3850</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1893,19 +1893,19 @@
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3">
         <v>3900</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1913,19 +1913,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
         <v>4000</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1933,19 +1933,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3">
         <v>4100</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1953,19 +1953,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3">
         <v>4500</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1973,19 +1973,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3">
         <v>5000</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1993,19 +1993,19 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3">
         <v>7000</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2013,19 +2013,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="9">
         <v>7500</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
